--- a/resources/Хоз парк 2020.xlsx
+++ b/resources/Хоз парк 2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\IdeaProjects\TextEditor\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\книги\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +738,12 @@
       <c r="O5" s="1">
         <v>1847</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3"/>
+      <c r="P5">
+        <v>227</v>
+      </c>
+      <c r="Q5">
+        <v>1675</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -857,7 +861,12 @@
       <c r="O8" s="1">
         <v>1143</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8">
+        <v>90.8</v>
+      </c>
+      <c r="Q8">
+        <v>740</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -905,7 +914,12 @@
       <c r="O9" s="1">
         <v>1213</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9">
+        <v>121</v>
+      </c>
+      <c r="Q9">
+        <v>1210</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -929,7 +943,9 @@
       <c r="N10" s="1">
         <v>260.89999999999998</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10">
+        <v>211.8</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1037,7 +1053,12 @@
       <c r="O13" s="1">
         <v>459</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13">
+        <v>197</v>
+      </c>
+      <c r="Q13">
+        <v>438</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
@@ -1061,7 +1082,9 @@
       <c r="N16" s="1">
         <v>507.9</v>
       </c>
-      <c r="P16" s="4"/>
+      <c r="P16">
+        <v>438.8</v>
+      </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
@@ -1085,15 +1108,12 @@
       <c r="N17" s="1">
         <v>204</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A6:AA7"/>
     <mergeCell ref="A11:AA12"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="C1:C2"/>
@@ -1106,6 +1126,11 @@
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A6:AA7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
